--- a/event_data_2025-03-08T09-56-20-363Z.xlsx
+++ b/event_data_2025-03-08T09-56-20-363Z.xlsx
@@ -88,25 +88,7 @@
     <t xml:space="preserve">8:18:14 PM</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://checkout.ticketmaster.com/035351b32c4644a89294ece1b91095f2?ccp_src=2&amp;ccp_channel=0&amp;edp=https%3A%2F%2Fwww.ticketmaster.com%2Fwicked-touring-tempe-arizona-03-15-2025%2Fevent%2F190060F1D1B02F78&amp;f_appview=false&amp;f_appview_ln=false&amp;f_appview_version=1&amp;f_layout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
+    <t xml:space="preserve">https://checkout.ticketmaster.com/3042fef43df84cceba8e25770cca698a?ccp_src=2&amp;ccp_channel=0&amp;edp=https%3A%2F%2Fwww.ticketmaster.com%2Feagles-live-at-sphere-las-vegas-nevada-04-12-2025%2Fevent%2F17006155A3172016&amp;f_appview=false&amp;f_appview_ln=false&amp;f_appview_version=1&amp;f_layout=</t>
   </si>
 </sst>
 </file>
@@ -188,16 +170,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,133 +379,133 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="3:3"/>
+      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="20.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="n">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>448</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" display="https://checkout.ticketmaster.com/035351b32c4644a89294ece1b91095f2?ccp_src=2&amp;ccp_channel=0&amp;edp=https%3A%2F%2Fwww.ticketmaster.com%2Fwicked-touring-tempe-arizona-03-15-2025%2Fevent%2F190060F1D1B02F78&amp;f_appview=false&amp;f_appview_ln=false&amp;f_appview_version=1&amp;f_layout"/>
+    <hyperlink ref="O2" r:id="rId1" display="https://checkout.ticketmaster.com/3042fef43df84cceba8e25770cca698a?ccp_src=2&amp;ccp_channel=0&amp;edp=https%3A%2F%2Fwww.ticketmaster.com%2Feagles-live-at-sphere-las-vegas-nevada-04-12-2025%2Fevent%2F17006155A3172016&amp;f_appview=false&amp;f_appview_ln=false&amp;f_appview_version=1&amp;f_layout"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/event_data_2025-03-08T09-56-20-363Z.xlsx
+++ b/event_data_2025-03-08T09-56-20-363Z.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">8:18:14 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">https://checkout.ticketmaster.com/3042fef43df84cceba8e25770cca698a?ccp_src=2&amp;ccp_channel=0&amp;edp=https%3A%2F%2Fwww.ticketmaster.com%2Feagles-live-at-sphere-las-vegas-nevada-04-12-2025%2Fevent%2F17006155A3172016&amp;f_appview=false&amp;f_appview_ln=false&amp;f_appview_version=1&amp;f_layout=</t>
+    <t xml:space="preserve">https://checkout.ticketmaster.com/84b3085adea04d079107aee040617da3?ccp_src=2&amp;ccp_channel=0&amp;edp=https%3A%2F%2Fwww.ticketmaster.com%2Fwicked-touring-tempe-arizona-03-29-2025%2Fevent%2F190060F1D6A333B6%3FrefArtist%3DK8vZ91754JV%26f_simplified_filter%3Dtrue%26f_enable_merch_slot%3Dtrue&amp;f_appview=false&amp;f_appview_ln=false&amp;f_appview_version=1&amp;f_layout=</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" display="https://checkout.ticketmaster.com/3042fef43df84cceba8e25770cca698a?ccp_src=2&amp;ccp_channel=0&amp;edp=https%3A%2F%2Fwww.ticketmaster.com%2Feagles-live-at-sphere-las-vegas-nevada-04-12-2025%2Fevent%2F17006155A3172016&amp;f_appview=false&amp;f_appview_ln=false&amp;f_appview_version=1&amp;f_layout"/>
+    <hyperlink ref="O2" r:id="rId1" display="https://checkout.ticketmaster.com/84b3085adea04d079107aee040617da3?ccp_src=2&amp;ccp_channel=0&amp;edp=https%3A%2F%2Fwww.ticketmaster.com%2Fwicked-touring-tempe-arizona-03-29-2025%2Fevent%2F190060F1D6A333B6%3FrefArtist%3DK8vZ91754JV%26f_simplified_filter%3Dtrue%26f_enable_merch_slot%3Dtrue&amp;f_appview=false&amp;f_appview_ln=false&amp;f_appview_version=1&amp;f_layout"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/event_data_2025-03-08T09-56-20-363Z.xlsx
+++ b/event_data_2025-03-08T09-56-20-363Z.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">8:18:14 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">https://checkout.ticketmaster.com/84b3085adea04d079107aee040617da3?ccp_src=2&amp;ccp_channel=0&amp;edp=https%3A%2F%2Fwww.ticketmaster.com%2Fwicked-touring-tempe-arizona-03-29-2025%2Fevent%2F190060F1D6A333B6%3FrefArtist%3DK8vZ91754JV%26f_simplified_filter%3Dtrue%26f_enable_merch_slot%3Dtrue&amp;f_appview=false&amp;f_appview_ln=false&amp;f_appview_version=1&amp;f_layout=</t>
+    <t xml:space="preserve">https://checkout.ticketmaster.com/875d60bfbf37499ba4aaf738282e17e8?ccp_src=2&amp;ccp_channel=0&amp;edp=https%3A%2F%2Fwww.ticketmaster.com%2Fwicked-touring-tempe-arizona-03-29-2025%2Fevent%2F190060F1D69F3364&amp;f_appview=false&amp;f_appview_ln=false&amp;f_appview_version=1&amp;f_layout=</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" display="https://checkout.ticketmaster.com/84b3085adea04d079107aee040617da3?ccp_src=2&amp;ccp_channel=0&amp;edp=https%3A%2F%2Fwww.ticketmaster.com%2Fwicked-touring-tempe-arizona-03-29-2025%2Fevent%2F190060F1D6A333B6%3FrefArtist%3DK8vZ91754JV%26f_simplified_filter%3Dtrue%26f_enable_merch_slot%3Dtrue&amp;f_appview=false&amp;f_appview_ln=false&amp;f_appview_version=1&amp;f_layout"/>
+    <hyperlink ref="O2" r:id="rId1" display="https://checkout.ticketmaster.com/875d60bfbf37499ba4aaf738282e17e8?ccp_src=2&amp;ccp_channel=0&amp;edp=https%3A%2F%2Fwww.ticketmaster.com%2Fwicked-touring-tempe-arizona-03-29-2025%2Fevent%2F190060F1D69F3364&amp;f_appview=false&amp;f_appview_ln=false&amp;f_appview_version=1&amp;f_layout"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
